--- a/src/test/test_data/TestData.xlsx
+++ b/src/test/test_data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Automobiles" sheetId="1" r:id="rId1"/>
@@ -204,8 +204,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -248,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -258,14 +266,27 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -570,63 +591,63 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -687,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -708,55 +729,55 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -812,115 +833,129 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="7"/>
-    <col min="3" max="3" width="9.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.88671875" style="7"/>
-    <col min="8" max="8" width="10.33203125" style="7" customWidth="1"/>
-    <col min="9" max="10" width="8.88671875" style="7"/>
-    <col min="11" max="11" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="7"/>
-    <col min="13" max="13" width="17.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="2" width="8.88671875" style="5"/>
+    <col min="3" max="3" width="9.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.88671875" style="5"/>
+    <col min="8" max="8" width="10.33203125" style="5" customWidth="1"/>
+    <col min="9" max="10" width="8.88671875" style="5"/>
+    <col min="11" max="11" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="5"/>
+    <col min="13" max="13" width="17.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="4" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:M1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
